--- a/config/workflow_json.xlsx
+++ b/config/workflow_json.xlsx
@@ -49,7 +49,7 @@
     <t>basic_t2i</t>
   </si>
   <si>
-    <t>majicmixRealistic_v5.safetensors</t>
+    <t>dreamshaper.safetensors</t>
   </si>
 </sst>
 </file>
@@ -983,13 +983,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="43.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="13.3636363636364" customWidth="1"/>
   </cols>
